--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf1</t>
+  </si>
+  <si>
+    <t>Cspg4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf1</t>
-  </si>
-  <si>
-    <t>Cspg4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H2">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I2">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J2">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.126590666666667</v>
+        <v>1.415809333333333</v>
       </c>
       <c r="N2">
-        <v>3.379772</v>
+        <v>4.247427999999999</v>
       </c>
       <c r="O2">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="P2">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="Q2">
-        <v>0.7527169082546665</v>
+        <v>0.3756835907906666</v>
       </c>
       <c r="R2">
-        <v>6.774452174291999</v>
+        <v>3.381152317115999</v>
       </c>
       <c r="S2">
-        <v>0.02006207465795548</v>
+        <v>0.01759885967287206</v>
       </c>
       <c r="T2">
-        <v>0.02006207465795548</v>
+        <v>0.01759885967287207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H3">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I3">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J3">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.540154</v>
       </c>
       <c r="O3">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="P3">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="Q3">
-        <v>4.129120957699333</v>
+        <v>1.639870441248667</v>
       </c>
       <c r="R3">
-        <v>37.162088619294</v>
+        <v>14.758833971238</v>
       </c>
       <c r="S3">
-        <v>0.1100529721288868</v>
+        <v>0.07681956434798606</v>
       </c>
       <c r="T3">
-        <v>0.1100529721288868</v>
+        <v>0.07681956434798606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H4">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I4">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J4">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.528966</v>
+        <v>0.130008</v>
       </c>
       <c r="N4">
-        <v>4.586898</v>
+        <v>0.390024</v>
       </c>
       <c r="O4">
-        <v>0.1040596177090857</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="P4">
-        <v>0.1040596177090858</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="Q4">
-        <v>1.021558756342</v>
+        <v>0.034497492792</v>
       </c>
       <c r="R4">
-        <v>9.194028807077999</v>
+        <v>0.310477435128</v>
       </c>
       <c r="S4">
-        <v>0.02722748461269774</v>
+        <v>0.00161603154781017</v>
       </c>
       <c r="T4">
-        <v>0.02722748461269775</v>
+        <v>0.00161603154781017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,25 +717,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H5">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I5">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J5">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.113983333333334</v>
+        <v>3.614693333333333</v>
       </c>
       <c r="N5">
-        <v>15.34195</v>
+        <v>10.84408</v>
       </c>
       <c r="O5">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188437</v>
       </c>
       <c r="P5">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188436</v>
       </c>
       <c r="Q5">
-        <v>3.416841482383333</v>
+        <v>0.9591552613066666</v>
       </c>
       <c r="R5">
-        <v>30.75157334145</v>
+        <v>8.63239735176</v>
       </c>
       <c r="S5">
-        <v>0.09106867158453887</v>
+        <v>0.04493153084676151</v>
       </c>
       <c r="T5">
-        <v>0.09106867158453889</v>
+        <v>0.0449315308467615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6681369999999999</v>
+        <v>0.265349</v>
       </c>
       <c r="H6">
-        <v>2.004411</v>
+        <v>0.7960469999999999</v>
       </c>
       <c r="I6">
-        <v>0.2616527449564177</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="J6">
-        <v>0.2616527449564178</v>
+        <v>0.1498685997319469</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.743582</v>
+        <v>0.7162056666666667</v>
       </c>
       <c r="N6">
-        <v>2.230746</v>
+        <v>2.148617</v>
       </c>
       <c r="O6">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573968</v>
       </c>
       <c r="P6">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573967</v>
       </c>
       <c r="Q6">
-        <v>0.4968146467339999</v>
+        <v>0.1900444574443333</v>
       </c>
       <c r="R6">
-        <v>4.471331820605999</v>
+        <v>1.710400116999</v>
       </c>
       <c r="S6">
-        <v>0.01324154197233883</v>
+        <v>0.008902613316517047</v>
       </c>
       <c r="T6">
-        <v>0.01324154197233883</v>
+        <v>0.008902613316517045</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.010202</v>
       </c>
       <c r="I7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J7">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.126590666666667</v>
+        <v>1.415809333333333</v>
       </c>
       <c r="N7">
-        <v>3.379772</v>
+        <v>4.247427999999999</v>
       </c>
       <c r="O7">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="P7">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="Q7">
-        <v>1.130421825993778</v>
+        <v>1.420624028939555</v>
       </c>
       <c r="R7">
-        <v>10.173796433944</v>
+        <v>12.785616260456</v>
       </c>
       <c r="S7">
-        <v>0.03012899912219945</v>
+        <v>0.06654898842028024</v>
       </c>
       <c r="T7">
-        <v>0.03012899912219945</v>
+        <v>0.06654898842028023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.010202</v>
       </c>
       <c r="I8">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J8">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>18.540154</v>
       </c>
       <c r="O8">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="P8">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="Q8">
         <v>6.20106762790089</v>
@@ -948,10 +948,10 @@
         <v>55.80960865110799</v>
       </c>
       <c r="S8">
-        <v>0.1652763214771418</v>
+        <v>0.2904883835243853</v>
       </c>
       <c r="T8">
-        <v>0.1652763214771418</v>
+        <v>0.2904883835243853</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>3.010202</v>
       </c>
       <c r="I9">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J9">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.528966</v>
+        <v>0.130008</v>
       </c>
       <c r="N9">
-        <v>4.586898</v>
+        <v>0.390024</v>
       </c>
       <c r="O9">
-        <v>0.1040596177090857</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="P9">
-        <v>0.1040596177090858</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="Q9">
-        <v>1.534165503710667</v>
+        <v>0.130450113872</v>
       </c>
       <c r="R9">
-        <v>13.807489533396</v>
+        <v>1.174051024848</v>
       </c>
       <c r="S9">
-        <v>0.04088993157396959</v>
+        <v>0.006110922341622126</v>
       </c>
       <c r="T9">
-        <v>0.04088993157396961</v>
+        <v>0.006110922341622125</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>3.010202</v>
       </c>
       <c r="I10">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J10">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.113983333333334</v>
+        <v>3.614693333333333</v>
       </c>
       <c r="N10">
-        <v>15.34195</v>
+        <v>10.84408</v>
       </c>
       <c r="O10">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188437</v>
       </c>
       <c r="P10">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188436</v>
       </c>
       <c r="Q10">
-        <v>5.131374285988889</v>
+        <v>3.626985700462222</v>
       </c>
       <c r="R10">
-        <v>46.18236857389999</v>
+        <v>32.64287130416</v>
       </c>
       <c r="S10">
-        <v>0.1367659114528518</v>
+        <v>0.1699057769427976</v>
       </c>
       <c r="T10">
-        <v>0.1367659114528518</v>
+        <v>0.1699057769427975</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>3.010202</v>
       </c>
       <c r="I11">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230926</v>
       </c>
       <c r="J11">
-        <v>0.3929471631183917</v>
+        <v>0.5667187473230925</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.743582</v>
+        <v>0.7162056666666667</v>
       </c>
       <c r="N11">
-        <v>2.230746</v>
+        <v>2.148617</v>
       </c>
       <c r="O11">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573968</v>
       </c>
       <c r="P11">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573967</v>
       </c>
       <c r="Q11">
-        <v>0.7461106745213333</v>
+        <v>0.7186412434037778</v>
       </c>
       <c r="R11">
-        <v>6.714996070691999</v>
+        <v>6.467771190634</v>
       </c>
       <c r="S11">
-        <v>0.01988599949222904</v>
+        <v>0.03366467609400732</v>
       </c>
       <c r="T11">
-        <v>0.01988599949222904</v>
+        <v>0.03366467609400731</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H12">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I12">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J12">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.126590666666667</v>
+        <v>1.415809333333333</v>
       </c>
       <c r="N12">
-        <v>3.379772</v>
+        <v>4.247427999999999</v>
       </c>
       <c r="O12">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="P12">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="Q12">
-        <v>0.02255697385822222</v>
+        <v>0.6782708334471109</v>
       </c>
       <c r="R12">
-        <v>0.203012764724</v>
+        <v>6.104437501023998</v>
       </c>
       <c r="S12">
-        <v>0.000601208354214486</v>
+        <v>0.03177352833781059</v>
       </c>
       <c r="T12">
-        <v>0.0006012083542144861</v>
+        <v>0.03177352833781059</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H13">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I13">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J13">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>18.540154</v>
       </c>
       <c r="O13">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="P13">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="Q13">
-        <v>0.1237390478131111</v>
+        <v>2.960673072225778</v>
       </c>
       <c r="R13">
-        <v>1.113651430318</v>
+        <v>26.646057650032</v>
       </c>
       <c r="S13">
-        <v>0.003298002194592748</v>
+        <v>0.1386924295141372</v>
       </c>
       <c r="T13">
-        <v>0.003298002194592748</v>
+        <v>0.1386924295141372</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,55 +1275,55 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4790693333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.437208</v>
+      </c>
+      <c r="I14">
+        <v>0.2705774288246194</v>
+      </c>
+      <c r="J14">
+        <v>0.2705774288246194</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.02002233333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.060067</v>
-      </c>
-      <c r="I14">
-        <v>0.007841054270455084</v>
-      </c>
-      <c r="J14">
-        <v>0.007841054270455085</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>1.528966</v>
+        <v>0.130008</v>
       </c>
       <c r="N14">
-        <v>4.586898</v>
+        <v>0.390024</v>
       </c>
       <c r="O14">
-        <v>0.1040596177090857</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="P14">
-        <v>0.1040596177090858</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="Q14">
-        <v>0.03061346690733333</v>
+        <v>0.06228284588799999</v>
       </c>
       <c r="R14">
-        <v>0.275521202166</v>
+        <v>0.5605456129919999</v>
       </c>
       <c r="S14">
-        <v>0.0008159371098197502</v>
+        <v>0.0029176335929476</v>
       </c>
       <c r="T14">
-        <v>0.0008159371098197505</v>
+        <v>0.0029176335929476</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H15">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I15">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J15">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.113983333333334</v>
+        <v>3.614693333333333</v>
       </c>
       <c r="N15">
-        <v>15.34195</v>
+        <v>10.84408</v>
       </c>
       <c r="O15">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188437</v>
       </c>
       <c r="P15">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188436</v>
       </c>
       <c r="Q15">
-        <v>0.1023938789611111</v>
+        <v>1.731688725404444</v>
       </c>
       <c r="R15">
-        <v>0.92154491065</v>
+        <v>15.58519852864</v>
       </c>
       <c r="S15">
-        <v>0.002729091935769908</v>
+        <v>0.0811207825482822</v>
       </c>
       <c r="T15">
-        <v>0.002729091935769909</v>
+        <v>0.08112078254828219</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,55 +1399,55 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02002233333333333</v>
+        <v>0.4790693333333333</v>
       </c>
       <c r="H16">
-        <v>0.060067</v>
+        <v>1.437208</v>
       </c>
       <c r="I16">
-        <v>0.007841054270455084</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="J16">
-        <v>0.007841054270455085</v>
+        <v>0.2705774288246194</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.743582</v>
+        <v>0.7162056666666667</v>
       </c>
       <c r="N16">
-        <v>2.230746</v>
+        <v>2.148617</v>
       </c>
       <c r="O16">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573968</v>
       </c>
       <c r="P16">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573967</v>
       </c>
       <c r="Q16">
-        <v>0.01488824666466667</v>
+        <v>0.3431121712595556</v>
       </c>
       <c r="R16">
-        <v>0.133994219982</v>
+        <v>3.088009541336</v>
       </c>
       <c r="S16">
-        <v>0.000396814676058192</v>
+        <v>0.0160730548314419</v>
       </c>
       <c r="T16">
-        <v>0.0003968146760581921</v>
+        <v>0.0160730548314419</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H17">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I17">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J17">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.126590666666667</v>
+        <v>1.415809333333333</v>
       </c>
       <c r="N17">
-        <v>3.379772</v>
+        <v>4.247427999999999</v>
       </c>
       <c r="O17">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="P17">
-        <v>0.07667442839667946</v>
+        <v>0.1174285988148896</v>
       </c>
       <c r="Q17">
-        <v>0.9710824750537779</v>
+        <v>0.03217473903644444</v>
       </c>
       <c r="R17">
-        <v>8.739742275484</v>
+        <v>0.289572651328</v>
       </c>
       <c r="S17">
-        <v>0.02588214626231004</v>
+        <v>0.001507222383926735</v>
       </c>
       <c r="T17">
-        <v>0.02588214626231004</v>
+        <v>0.001507222383926735</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H18">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I18">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J18">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>18.540154</v>
       </c>
       <c r="O18">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="P18">
-        <v>0.4206069848310508</v>
+        <v>0.5125794495003263</v>
       </c>
       <c r="Q18">
-        <v>5.32699206757089</v>
+        <v>0.1404437265671111</v>
       </c>
       <c r="R18">
-        <v>47.942928608138</v>
+        <v>1.263993539104</v>
       </c>
       <c r="S18">
-        <v>0.1419796890304294</v>
+        <v>0.006579072113817775</v>
       </c>
       <c r="T18">
-        <v>0.1419796890304294</v>
+        <v>0.006579072113817775</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,55 +1585,55 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H19">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I19">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J19">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.528966</v>
+        <v>0.130008</v>
       </c>
       <c r="N19">
-        <v>4.586898</v>
+        <v>0.390024</v>
       </c>
       <c r="O19">
-        <v>0.1040596177090857</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="P19">
-        <v>0.1040596177090858</v>
+        <v>0.01078298957020072</v>
       </c>
       <c r="Q19">
-        <v>1.317916197500667</v>
+        <v>0.002954475136</v>
       </c>
       <c r="R19">
-        <v>11.861245777506</v>
+        <v>0.026590276224</v>
       </c>
       <c r="S19">
-        <v>0.03512626441259865</v>
+        <v>0.0001384020878208273</v>
       </c>
       <c r="T19">
-        <v>0.03512626441259865</v>
+        <v>0.0001384020878208273</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H20">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I20">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J20">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.113983333333334</v>
+        <v>3.614693333333333</v>
       </c>
       <c r="N20">
-        <v>15.34195</v>
+        <v>10.84408</v>
       </c>
       <c r="O20">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188437</v>
       </c>
       <c r="P20">
-        <v>0.34805165754981</v>
+        <v>0.2998061697188436</v>
       </c>
       <c r="Q20">
-        <v>4.408078053238889</v>
+        <v>0.08214511089777778</v>
       </c>
       <c r="R20">
-        <v>39.67270247915</v>
+        <v>0.73930599808</v>
       </c>
       <c r="S20">
-        <v>0.1174879825766494</v>
+        <v>0.003848079381002394</v>
       </c>
       <c r="T20">
-        <v>0.1174879825766494</v>
+        <v>0.003848079381002393</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,55 +1709,55 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.8619656666666667</v>
+        <v>0.02272533333333333</v>
       </c>
       <c r="H21">
-        <v>2.585897</v>
+        <v>0.068176</v>
       </c>
       <c r="I21">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="J21">
-        <v>0.3375590376547354</v>
+        <v>0.01283522412034115</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.743582</v>
+        <v>0.7162056666666667</v>
       </c>
       <c r="N21">
-        <v>2.230746</v>
+        <v>2.148617</v>
       </c>
       <c r="O21">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573968</v>
       </c>
       <c r="P21">
-        <v>0.05060731151337401</v>
+        <v>0.05940279239573967</v>
       </c>
       <c r="Q21">
-        <v>0.6409421543513334</v>
+        <v>0.01627601251022223</v>
       </c>
       <c r="R21">
-        <v>5.768479389162</v>
+        <v>0.146484112592</v>
       </c>
       <c r="S21">
-        <v>0.01708295537274794</v>
+        <v>0.0007624481537734155</v>
       </c>
       <c r="T21">
-        <v>0.01708295537274794</v>
+        <v>0.0007624481537734154</v>
       </c>
     </row>
   </sheetData>
